--- a/DMSNewVSale_2025-11-03_14-12.xlsx
+++ b/DMSNewVSale_2025-11-03_14-12.xlsx
@@ -204,6 +204,15 @@
   </si>
   <si>
     <t>51.9750</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
   </si>
   <si>
     <t>INCONT L.A. 4MG 30 TAB.</t>
@@ -1580,7 +1589,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1597,7 +1606,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1613,7 +1622,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1627,7 +1636,7 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1639,14 +1648,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1656,11 +1665,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1679,7 +1688,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1712,21 +1721,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1738,20 +1747,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1778,7 +1787,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1788,11 +1797,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1804,14 +1813,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1821,14 +1830,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1837,31 +1846,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1870,14 +1879,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1887,14 +1896,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1903,31 +1912,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1936,20 +1945,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1960,7 +1969,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1976,13 +1985,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1993,7 +2002,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2002,14 +2011,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2019,14 +2028,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>108</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2052,11 +2061,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2068,14 +2077,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2085,14 +2094,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2101,14 +2110,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2118,14 +2127,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2134,14 +2143,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2158,7 +2167,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2174,13 +2183,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2191,7 +2200,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2207,7 +2216,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2217,11 +2226,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2233,14 +2242,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2257,7 +2266,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2266,7 +2275,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2283,14 +2292,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>137</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>118</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2306,7 +2315,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2323,44 +2332,77 @@
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>141</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>137</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>52</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>142</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="45" ht="25.5" customHeight="1">
-      <c r="N45" s="13">
-        <v>2803.605</v>
-      </c>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
-        <v>141</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
-        <v>142</v>
-      </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
-        <v>143</v>
-      </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+    <row r="46" ht="26.25" customHeight="1">
+      <c r="N46" s="13">
+        <v>2840.605</v>
+      </c>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>144</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>145</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>146</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2559,10 +2601,15 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
